--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="195">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Una vez que llegue la cotiacion el sistema deberia habilitar los campos para el ingeso y enviar la póliza fisica al cliente</t>
+  </si>
+  <si>
+    <t>Prueba</t>
   </si>
 </sst>
 </file>
@@ -4110,7 +4113,7 @@
   <dimension ref="A10:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:C52"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4576,9 +4579,15 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="A53" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="196">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>Prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores de objetos asegurados  esta sumando mal </t>
   </si>
 </sst>
 </file>
@@ -4113,7 +4116,7 @@
   <dimension ref="A10:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,9 +4593,15 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="197">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t xml:space="preserve">Valores de objetos asegurados  esta sumando mal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe validar por cada item ingresado un solo detalle </t>
   </si>
 </sst>
 </file>
@@ -1323,6 +1326,50 @@
         <a:xfrm>
           <a:off x="5410200" y="14658975"/>
           <a:ext cx="3743325" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A06C2D-5183-4388-BFDE-2670A0349B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="24698325"/>
+          <a:ext cx="5143500" cy="1628529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4115,8 +4162,8 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A10:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,17 +4643,21 @@
       <c r="A54" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="198">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t xml:space="preserve">El sistema debe validar por cada item ingresado un solo detalle </t>
+  </si>
+  <si>
+    <t>Si modificas un valor del objeto  de la lista ubicacvión del riesgo este no suma. Suma total 900</t>
   </si>
 </sst>
 </file>
@@ -1337,15 +1340,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>75954</xdr:rowOff>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1368,8 +1371,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486401" y="24698325"/>
+          <a:off x="5419726" y="24326850"/>
           <a:ext cx="5143500" cy="1628529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>94932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C9718B-4B58-485D-9444-176CD0A2DE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="25898475"/>
+          <a:ext cx="7000000" cy="2542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4162,8 +4209,8 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A10:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,10 +4706,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>

--- a/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
+++ b/Documentacion/Pruebas Noviembre/INCIDENCIAS VERSION 1.1 25 01 2017.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="198">
   <si>
     <t xml:space="preserve">REPORTE DE INCIDENCIAS </t>
   </si>
@@ -4209,8 +4209,8 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A10:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,11 +4276,9 @@
       <c r="A16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
